--- a/financial_data/kleos.xlsx
+++ b/financial_data/kleos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holly\space_econometrics\financial_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F626EE5-B8EF-45F9-A080-A8A1101D6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F97E4B-D814-4606-9FC7-714CEECB43CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,8 +188,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="169" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -253,13 +253,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430E7A42-4932-4281-BA35-B8BB0DF46295}">
   <dimension ref="A1:AX18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1373,7 +1373,9 @@
       <c r="R6" s="6">
         <v>0</v>
       </c>
-      <c r="S6" s="6"/>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
       <c r="T6" s="6">
         <v>2192066</v>
       </c>

--- a/financial_data/kleos.xlsx
+++ b/financial_data/kleos.xlsx
@@ -148,7 +148,7 @@
     <t>Income tax expense</t>
   </si>
   <si>
-    <t>Net loss</t>
+    <t>Net Loss</t>
   </si>
   <si>
     <t>Foreign currency translation</t>
@@ -168,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="$#,##0_);($#,##0)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,12 +179,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -222,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -230,19 +224,16 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -562,56 +553,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="137.25" customFormat="1" s="1">
@@ -767,2586 +758,2586 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>43465</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
         <v>4263626</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1063837</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>5327463</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>1917761</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
         <v>1917761</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>7245224</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>728710</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>754189</v>
       </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
         <v>717</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>1483616</v>
       </c>
-      <c r="U2" s="7">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7">
-        <v>0</v>
-      </c>
-      <c r="W2" s="7">
-        <v>0</v>
-      </c>
-      <c r="X2" s="7">
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6">
         <v>1483616</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="6">
         <v>5761608</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z2" s="6">
         <v>7687994</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="6">
         <v>459012</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="6">
         <v>-2385398</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="6">
         <v>5761608</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AD2" s="6">
         <v>827709</v>
       </c>
-      <c r="AE2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="7">
+      <c r="AE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="6">
         <v>-1680479</v>
       </c>
-      <c r="AH2" s="7">
+      <c r="AH2" s="6">
         <v>-113932</v>
       </c>
-      <c r="AI2" s="7">
+      <c r="AI2" s="6">
         <v>-1209669</v>
       </c>
-      <c r="AJ2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="7">
+      <c r="AJ2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="6">
         <v>-10570</v>
       </c>
-      <c r="AL2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="7">
+      <c r="AL2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="6">
         <v>-6099</v>
       </c>
-      <c r="AN2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="7">
+      <c r="AN2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="6">
         <v>-3029753</v>
       </c>
-      <c r="AP2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="7">
+      <c r="AP2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="6">
         <v>140</v>
       </c>
-      <c r="AR2" s="7">
+      <c r="AR2" s="6">
         <v>-9004</v>
       </c>
-      <c r="AS2" s="7">
+      <c r="AS2" s="6">
         <v>-2201904</v>
       </c>
-      <c r="AT2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="7">
+      <c r="AT2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="6">
         <v>-2201904</v>
       </c>
-      <c r="AV2" s="7">
+      <c r="AV2" s="6">
         <v>482</v>
       </c>
-      <c r="AW2" s="7">
+      <c r="AW2" s="6">
         <v>482</v>
       </c>
-      <c r="AX2" s="7">
+      <c r="AX2" s="6">
         <v>-2201422</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>43554</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
         <v>3295346.7205479452</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>1392407.687671233</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>4687754.408219178</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>2045812.0054794522</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
         <v>2054405.5041095892</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>6742159.912328768</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>635104.1890410959</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>619889.9506849315</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
         <v>542.1698630136987</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <v>1656361.3424657534</v>
       </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
         <v>1656361.3424657534</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="6">
         <v>5085798.569863014</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="6">
         <v>7687994</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="6">
         <v>520206.69315068494</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="6">
         <v>-3122402.1232876712</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="6">
         <v>5085798.569863014</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AD3" s="6">
         <v>772335.6383561643</v>
       </c>
-      <c r="AE3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="7">
+      <c r="AE3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="6">
         <v>-1828381.6383561646</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH3" s="6">
         <v>-134031.3698630137</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3" s="6">
         <v>-1220620.1452054793</v>
       </c>
-      <c r="AJ3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="7">
+      <c r="AJ3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="6">
         <v>-24775.37534246575</v>
       </c>
-      <c r="AL3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="7">
+      <c r="AL3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="6">
         <v>-19445.58630136986</v>
       </c>
-      <c r="AN3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="7">
+      <c r="AN3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="6">
         <v>-3291737.0575342467</v>
       </c>
-      <c r="AP3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="7">
+      <c r="AP3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="6">
         <v>171.2109589041096</v>
       </c>
-      <c r="AR3" s="7">
+      <c r="AR3" s="6">
         <v>-64482.942465753425</v>
       </c>
-      <c r="AS3" s="7">
+      <c r="AS3" s="6">
         <v>-2519230.208219178</v>
       </c>
-      <c r="AT3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="7">
+      <c r="AT3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="6">
         <v>-2519230.208219178</v>
       </c>
-      <c r="AV3" s="7">
+      <c r="AV3" s="6">
         <v>64.7972602739726</v>
       </c>
-      <c r="AW3" s="7">
+      <c r="AW3" s="6">
         <v>64.7972602739726</v>
       </c>
-      <c r="AX3" s="7">
+      <c r="AX3" s="6">
         <v>-2519165.410958904</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>43646</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
         <v>2294428.81369863</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1732053.791780822</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>4026482.605479452</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>2178179.3369863015</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
         <v>2195656.002739726</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>6222138.608219178</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>538343.1260273972</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>481063.9671232877</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
         <v>361.44657534246574</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <v>1834929.5616438356</v>
       </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
         <v>1834929.5616438356</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="6">
         <v>4387209.046575342</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="6">
         <v>7687994</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>583464.1287671233</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="6">
         <v>-3884249.0821917807</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="6">
         <v>4387209.046575342</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="6">
         <v>715095.7589041096</v>
       </c>
-      <c r="AE4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="7">
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6">
         <v>-1981269.7589041097</v>
       </c>
-      <c r="AH4" s="7">
+      <c r="AH4" s="6">
         <v>-154808.24657534246</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AI4" s="6">
         <v>-1231940.4301369863</v>
       </c>
-      <c r="AJ4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="7">
+      <c r="AJ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="6">
         <v>-39459.583561643834</v>
       </c>
-      <c r="AL4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="7">
+      <c r="AL4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="6">
         <v>-33242.057534246575</v>
       </c>
-      <c r="AN4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="7">
+      <c r="AN4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="6">
         <v>-3562552.0383561645</v>
       </c>
-      <c r="AP4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="7">
+      <c r="AP4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="6">
         <v>203.4739726027397</v>
       </c>
-      <c r="AR4" s="7">
+      <c r="AR4" s="6">
         <v>-121831.96164383562</v>
       </c>
-      <c r="AS4" s="7">
+      <c r="AS4" s="6">
         <v>-2847252.805479452</v>
       </c>
-      <c r="AT4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="7">
+      <c r="AT4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="6">
         <v>-2847252.805479452</v>
       </c>
-      <c r="AV4" s="7">
+      <c r="AV4" s="6">
         <v>-366.46849315068494</v>
       </c>
-      <c r="AW4" s="7">
+      <c r="AW4" s="6">
         <v>-366.46849315068494</v>
       </c>
-      <c r="AX4" s="7">
+      <c r="AX4" s="6">
         <v>-2847619.2739726026</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>43738</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
         <v>1293510.906849315</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>2071699.895890411</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>3365210.802739726</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>2310546.6684931507</v>
       </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
         <v>2336906.501369863</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>5702117.304109589</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>441582.0630136986</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>342237.98356164386</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
         <v>180.72328767123287</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>2013497.7808219178</v>
       </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
         <v>2013497.7808219178</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>3688619.523287671</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="6">
         <v>7687994</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>646721.5643835617</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="6">
         <v>-4646096.04109589</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="6">
         <v>3688619.523287671</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>657855.8794520549</v>
       </c>
-      <c r="AE5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="7">
+      <c r="AE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="6">
         <v>-2134157.879452055</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AH5" s="6">
         <v>-175585.12328767125</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AI5" s="6">
         <v>-1243260.715068493</v>
       </c>
-      <c r="AJ5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="7">
+      <c r="AJ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="6">
         <v>-54143.79178082192</v>
       </c>
-      <c r="AL5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="7">
+      <c r="AL5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="6">
         <v>-47038.52876712329</v>
       </c>
-      <c r="AN5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="7">
+      <c r="AN5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="6">
         <v>-3833367.0191780822</v>
       </c>
-      <c r="AP5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="7">
+      <c r="AP5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="6">
         <v>235.73698630136985</v>
       </c>
-      <c r="AR5" s="7">
+      <c r="AR5" s="6">
         <v>-179180.98082191782</v>
       </c>
-      <c r="AS5" s="7">
+      <c r="AS5" s="6">
         <v>-3175275.402739726</v>
       </c>
-      <c r="AT5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="7">
+      <c r="AT5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="6">
         <v>-3175275.402739726</v>
       </c>
-      <c r="AV5" s="7">
+      <c r="AV5" s="6">
         <v>-797.7342465753425</v>
       </c>
-      <c r="AW5" s="7">
+      <c r="AW5" s="6">
         <v>-797.7342465753425</v>
       </c>
-      <c r="AX5" s="7">
+      <c r="AX5" s="6">
         <v>-3176073.1369863013</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>43830</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
         <v>292593</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>2411346</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>2703939</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>2442914</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>35243</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
         <v>2478157</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>5182096</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>344821</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>203412</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
         <v>1601198</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>36602</v>
       </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
         <v>2192066</v>
       </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
+      <c r="U6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
         <v>2192066</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <v>2990030</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="6">
         <v>7687994</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>709979</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="6">
         <v>-5407943</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="6">
         <v>2990030</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>600616</v>
       </c>
-      <c r="AE6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="7">
+      <c r="AE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="6">
         <v>-2287046</v>
       </c>
-      <c r="AH6" s="7">
+      <c r="AH6" s="6">
         <v>-196362</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="AI6" s="6">
         <v>-1254581</v>
       </c>
-      <c r="AJ6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="7">
+      <c r="AJ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="6">
         <v>-68828</v>
       </c>
-      <c r="AL6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="7">
+      <c r="AL6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="6">
         <v>-60835</v>
       </c>
-      <c r="AN6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="7">
+      <c r="AN6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="6">
         <v>-4104182</v>
       </c>
-      <c r="AP6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="7">
+      <c r="AP6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="6">
         <v>268</v>
       </c>
-      <c r="AR6" s="7">
+      <c r="AR6" s="6">
         <v>-236530</v>
       </c>
-      <c r="AS6" s="7">
+      <c r="AS6" s="6">
         <v>-3503298</v>
       </c>
-      <c r="AT6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="7">
+      <c r="AT6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="6">
         <v>-3503298</v>
       </c>
-      <c r="AV6" s="7">
+      <c r="AV6" s="6">
         <v>-1229</v>
       </c>
-      <c r="AW6" s="7">
+      <c r="AW6" s="6">
         <v>-1229</v>
       </c>
-      <c r="AX6" s="7">
+      <c r="AX6" s="6">
         <v>-3504527</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>43920</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
         <v>2873421.68852459</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>1977972.3934426229</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>4851394.081967213</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>3186538.508196722</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <v>3213115.1967213117</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>8064509.278688524</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>364048.7868852459</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>232842.4918032787</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
         <v>2059780.4590163932</v>
       </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
         <v>128.85245901639342</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <v>2894026.901639344</v>
       </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
         <v>2894026.901639344</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <v>5170482.37704918</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="6">
         <v>11174876.295081966</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>600656.7868852459</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="6">
         <v>-6605050.7049180325</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="6">
         <v>5170482.37704918</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <v>496256.3278688524</v>
       </c>
-      <c r="AE7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="7">
+      <c r="AE7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="6">
         <v>-2040893.5409836066</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7" s="6">
         <v>-270131.262295082</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AI7" s="6">
         <v>-1265428.4590163934</v>
       </c>
-      <c r="AJ7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="7">
+      <c r="AJ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6">
         <v>-80991.52459016393</v>
       </c>
-      <c r="AL7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="7">
+      <c r="AL7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="6">
         <v>-56501.96721311475</v>
       </c>
-      <c r="AN7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="7">
+      <c r="AN7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="6">
         <v>-4202365.1147540985</v>
       </c>
-      <c r="AP7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="7">
+      <c r="AP7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="6">
         <v>-488418.3606557377</v>
       </c>
-      <c r="AS7" s="7">
+      <c r="AS7" s="6">
         <v>-3838938.9836065574</v>
       </c>
-      <c r="AT7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="7">
+      <c r="AT7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="6">
         <v>-3838938.9836065574</v>
       </c>
-      <c r="AV7" s="7">
+      <c r="AV7" s="6">
         <v>-712.6065573770492</v>
       </c>
-      <c r="AW7" s="7">
+      <c r="AW7" s="6">
         <v>-712.6065573770492</v>
       </c>
-      <c r="AX7" s="7">
+      <c r="AX7" s="6">
         <v>-3839651.5901639345</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>44012</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
         <v>5511602.12568306</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>1534968.2622950817</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>7046570.387978142</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>3946688.005464481</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <v>3964405.7978142076</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>11010976.18579235</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>383703.8579234973</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>262926.99453551916</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
         <v>2528553.639344262</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
         <v>260.56830601092895</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <v>3611586.9344262294</v>
       </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
+      <c r="U8" s="6">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
         <v>3611586.9344262294</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <v>7399389.25136612</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="6">
         <v>14739244.863387978</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="6">
         <v>488905.1912568306</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="6">
         <v>-7828760.803278688</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="6">
         <v>7399389.25136612</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>389577.5519125683</v>
       </c>
-      <c r="AE8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="7">
+      <c r="AE8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="6">
         <v>-1789271.0273224043</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AH8" s="6">
         <v>-345539.8415300547</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AI8" s="6">
         <v>-1276516.9726775957</v>
       </c>
-      <c r="AJ8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="7">
+      <c r="AJ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="6">
         <v>-93425.34972677595</v>
       </c>
-      <c r="AL8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="7">
+      <c r="AL8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="6">
         <v>-52072.64480874317</v>
       </c>
-      <c r="AN8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="7">
+      <c r="AN8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="6">
         <v>-4302730.076502732</v>
       </c>
-      <c r="AP8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="7">
+      <c r="AP8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="6">
         <v>-745904.2404371584</v>
       </c>
-      <c r="AS8" s="7">
+      <c r="AS8" s="6">
         <v>-4182038.655737705</v>
       </c>
-      <c r="AT8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="7">
+      <c r="AT8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="6">
         <v>-4182038.655737705</v>
       </c>
-      <c r="AV8" s="7">
+      <c r="AV8" s="6">
         <v>-184.7377049180327</v>
       </c>
-      <c r="AW8" s="7">
+      <c r="AW8" s="6">
         <v>-184.7377049180327</v>
       </c>
-      <c r="AX8" s="7">
+      <c r="AX8" s="6">
         <v>-4182223.393442623</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>44104</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
         <v>8149782.56284153</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1091964.1311475409</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>9241746.693989072</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>4706837.502732241</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
         <v>4715696.398907104</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>13957443.092896175</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>403358.9289617486</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>293011.4972677596</v>
       </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
         <v>2997326.819672131</v>
       </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
         <v>392.2841530054645</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <v>4329146.967213115</v>
       </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
         <v>4329146.967213115</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="6">
         <v>9628296.12568306</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="6">
         <v>18303613.43169399</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="6">
         <v>377153.5956284153</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="6">
         <v>-9052470.901639344</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="6">
         <v>9628296.12568306</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AD9" s="6">
         <v>282898.77595628414</v>
       </c>
-      <c r="AE9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="7">
+      <c r="AE9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="6">
         <v>-1537648.513661202</v>
       </c>
-      <c r="AH9" s="7">
+      <c r="AH9" s="6">
         <v>-420948.42076502735</v>
       </c>
-      <c r="AI9" s="7">
+      <c r="AI9" s="6">
         <v>-1287605.486338798</v>
       </c>
-      <c r="AJ9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="7">
+      <c r="AJ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="6">
         <v>-105859.17486338798</v>
       </c>
-      <c r="AL9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="7">
+      <c r="AL9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="6">
         <v>-47643.32240437159</v>
       </c>
-      <c r="AN9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="7">
+      <c r="AN9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="6">
         <v>-4403095.0382513665</v>
       </c>
-      <c r="AP9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="7">
+      <c r="AP9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="6">
         <v>-1003390.1202185792</v>
       </c>
-      <c r="AS9" s="7">
+      <c r="AS9" s="6">
         <v>-4525138.327868853</v>
       </c>
-      <c r="AT9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="7">
+      <c r="AT9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="6">
         <v>-4525138.327868853</v>
       </c>
-      <c r="AV9" s="7">
+      <c r="AV9" s="6">
         <v>343.13114754098365</v>
       </c>
-      <c r="AW9" s="7">
+      <c r="AW9" s="6">
         <v>343.13114754098365</v>
       </c>
-      <c r="AX9" s="7">
+      <c r="AX9" s="6">
         <v>-4524795.196721312</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>44196</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>10787963</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>648960</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>11436923</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>5466987</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
         <v>5466987</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>16903910</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>423014</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>323096</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
         <v>3466100</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
         <v>833973</v>
       </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
         <v>524</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <v>5046707</v>
       </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
         <v>5046707</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="6">
         <v>11857203</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="6">
         <v>21867982</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="6">
         <v>265402</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="6">
         <v>-10276181</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="6">
         <v>11857203</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AD10" s="6">
         <v>176220</v>
       </c>
-      <c r="AE10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="7">
+      <c r="AE10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="6">
         <v>-1286026</v>
       </c>
-      <c r="AH10" s="7">
+      <c r="AH10" s="6">
         <v>-496357</v>
       </c>
-      <c r="AI10" s="7">
+      <c r="AI10" s="6">
         <v>-1298694</v>
       </c>
-      <c r="AJ10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="7">
+      <c r="AJ10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="6">
         <v>-118293</v>
       </c>
-      <c r="AL10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="7">
+      <c r="AL10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="6">
         <v>-43214</v>
       </c>
-      <c r="AN10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="7">
+      <c r="AN10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="6">
         <v>-4503460</v>
       </c>
-      <c r="AP10" s="7">
+      <c r="AP10" s="6">
         <v>-540998</v>
       </c>
-      <c r="AQ10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="7">
+      <c r="AQ10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="6">
         <v>-1260876</v>
       </c>
-      <c r="AS10" s="7">
+      <c r="AS10" s="6">
         <v>-4868238</v>
       </c>
-      <c r="AT10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="7">
+      <c r="AT10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="6">
         <v>-4868238</v>
       </c>
-      <c r="AV10" s="7">
+      <c r="AV10" s="6">
         <v>871</v>
       </c>
-      <c r="AW10" s="7">
+      <c r="AW10" s="6">
         <v>871</v>
       </c>
-      <c r="AX10" s="7">
+      <c r="AX10" s="6">
         <v>-4867367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>44285</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>9568105.835616438</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>804134.0602739726</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>10372239.895890411</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>6419724.4410958905</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
         <v>6526598.079452055</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>16898837.975342464</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>438133.0273972603</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>384287.03561643837</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
         <v>2638707.7205479452</v>
       </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
         <v>1438864.791780822</v>
       </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
         <v>2094.0575342465754</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>4912605.457534246</v>
       </c>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7">
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
         <v>4957250.29589041</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="6">
         <v>11941587.679452056</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z11" s="6">
         <v>23474438.82739726</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="6">
         <v>296028.7287671233</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="6">
         <v>-11828879.87671233</v>
       </c>
-      <c r="AC11" s="7">
+      <c r="AC11" s="6">
         <v>11941587.679452056</v>
       </c>
-      <c r="AD11" s="7">
+      <c r="AD11" s="6">
         <v>163859.48493150686</v>
       </c>
-      <c r="AE11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="7">
+      <c r="AE11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="6">
         <v>-1695153.3917808218</v>
       </c>
-      <c r="AH11" s="7">
+      <c r="AH11" s="6">
         <v>-433581.7643835617</v>
       </c>
-      <c r="AI11" s="7">
+      <c r="AI11" s="6">
         <v>-1361557.5041095892</v>
       </c>
-      <c r="AJ11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="7">
+      <c r="AJ11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="6">
         <v>-119230.30410958904</v>
       </c>
-      <c r="AL11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="7">
+      <c r="AL11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="6">
         <v>-220154.04657534248</v>
       </c>
-      <c r="AN11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="7">
+      <c r="AN11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="6">
         <v>-4712323.736986302</v>
       </c>
-      <c r="AP11" s="7">
+      <c r="AP11" s="6">
         <v>-585019.594520548</v>
       </c>
-      <c r="AQ11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="7">
+      <c r="AQ11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="6">
         <v>-1022759.791780822</v>
       </c>
-      <c r="AS11" s="7">
+      <c r="AS11" s="6">
         <v>-5233422.312328767</v>
       </c>
-      <c r="AT11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="7">
+      <c r="AT11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="6">
         <v>-5233887.063013699</v>
       </c>
-      <c r="AV11" s="7">
+      <c r="AV11" s="6">
         <v>-979.9561643835616</v>
       </c>
-      <c r="AW11" s="7">
+      <c r="AW11" s="6">
         <v>-979.9561643835616</v>
       </c>
-      <c r="AX11" s="7">
+      <c r="AX11" s="6">
         <v>-5234867.019178082</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>44377</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>8307129.890410959</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>964538.7068493151</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>9271668.597260274</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>7404576.627397261</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
         <v>7621926.38630137</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>16893594.983561642</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>453761.68493150687</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>447540.6904109589</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
         <v>1783425.81369863</v>
       </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
         <v>2064146.194520548</v>
       </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
         <v>3717.0383561643835</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="6">
         <v>4773983.638356164</v>
       </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7">
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
         <v>4864778.197260274</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="6">
         <v>12028816.78630137</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="6">
         <v>25135045.88493151</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <v>327687.81917808217</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="6">
         <v>-13433916.91780822</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="6">
         <v>12028816.78630137</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="6">
         <v>151082.32328767123</v>
       </c>
-      <c r="AE12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="7">
+      <c r="AE12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="6">
         <v>-2118071.594520548</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="6">
         <v>-368690.5095890411</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AI12" s="6">
         <v>-1426540.002739726</v>
       </c>
-      <c r="AJ12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="7">
+      <c r="AJ12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="6">
         <v>-120199.20273972602</v>
       </c>
-      <c r="AL12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="7">
+      <c r="AL12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="6">
         <v>-403058.36438356165</v>
       </c>
-      <c r="AN12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="7">
+      <c r="AN12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="6">
         <v>-4928227.824657534</v>
       </c>
-      <c r="AP12" s="7">
+      <c r="AP12" s="6">
         <v>-630525.0630136987</v>
       </c>
-      <c r="AQ12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="7">
+      <c r="AQ12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="6">
         <v>-776617.194520548</v>
       </c>
-      <c r="AS12" s="7">
+      <c r="AS12" s="6">
         <v>-5610916.208219178</v>
       </c>
-      <c r="AT12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="7">
+      <c r="AT12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="6">
         <v>-5611861.375342466</v>
       </c>
-      <c r="AV12" s="7">
+      <c r="AV12" s="6">
         <v>-2893.3041095890408</v>
       </c>
-      <c r="AW12" s="7">
+      <c r="AW12" s="6">
         <v>-2893.3041095890408</v>
       </c>
-      <c r="AX12" s="7">
+      <c r="AX12" s="6">
         <v>-5614754.679452055</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>44469</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>7046153.94520548</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>1124943.3534246576</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>8171097.298630137</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>8389428.81369863</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
         <v>8717254.693150684</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>16888351.99178082</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>469390.34246575343</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>510794.3452054794</v>
       </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
         <v>928143.906849315</v>
       </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
         <v>2689427.597260274</v>
       </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
         <v>5340.0191780821915</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <v>4635361.819178082</v>
       </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7">
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
         <v>4772306.098630137</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="6">
         <v>12116045.893150685</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="Z13" s="6">
         <v>26795652.942465752</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="6">
         <v>359346.9095890411</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="6">
         <v>-15038953.95890411</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="6">
         <v>12116045.893150685</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AD13" s="6">
         <v>138305.1616438356</v>
       </c>
-      <c r="AE13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="7">
+      <c r="AE13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="6">
         <v>-2540989.797260274</v>
       </c>
-      <c r="AH13" s="7">
+      <c r="AH13" s="6">
         <v>-303799.25479452056</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AI13" s="6">
         <v>-1491522.501369863</v>
       </c>
-      <c r="AJ13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="7">
+      <c r="AJ13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="6">
         <v>-121168.10136986301</v>
       </c>
-      <c r="AL13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="7">
+      <c r="AL13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="6">
         <v>-585962.6821917808</v>
       </c>
-      <c r="AN13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="7">
+      <c r="AN13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="6">
         <v>-5144131.912328767</v>
       </c>
-      <c r="AP13" s="7">
+      <c r="AP13" s="6">
         <v>-676030.5315068493</v>
       </c>
-      <c r="AQ13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="7">
+      <c r="AQ13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="6">
         <v>-530474.597260274</v>
       </c>
-      <c r="AS13" s="7">
+      <c r="AS13" s="6">
         <v>-5988410.104109589</v>
       </c>
-      <c r="AT13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="7">
+      <c r="AT13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="6">
         <v>-5989835.687671233</v>
       </c>
-      <c r="AV13" s="7">
+      <c r="AV13" s="6">
         <v>-4806.65205479452</v>
       </c>
-      <c r="AW13" s="7">
+      <c r="AW13" s="6">
         <v>-4806.65205479452</v>
       </c>
-      <c r="AX13" s="7">
+      <c r="AX13" s="6">
         <v>-5994642.339726028</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>44561</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>8</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>5785178</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1285348</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>7070526</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>9374281</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>139471</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>298831</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>9812583</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>16883109</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>485019</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>574048</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
         <v>72862</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>43139</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>3314709</v>
       </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
         <v>6963</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <v>4496740</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="6">
         <v>73595</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="6">
         <v>109499</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="6">
         <v>183094</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <v>4679834</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="6">
         <v>12203275</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="6">
         <v>28456260</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="6">
         <v>391006</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="6">
         <v>-16643991</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="6">
         <v>12203275</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AD14" s="6">
         <v>125528</v>
       </c>
-      <c r="AE14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="7">
+      <c r="AE14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="6">
         <v>125528</v>
       </c>
-      <c r="AG14" s="7">
+      <c r="AG14" s="6">
         <v>-2963908</v>
       </c>
-      <c r="AH14" s="7">
+      <c r="AH14" s="6">
         <v>-238908</v>
       </c>
-      <c r="AI14" s="7">
+      <c r="AI14" s="6">
         <v>-1556505</v>
       </c>
-      <c r="AJ14" s="7">
+      <c r="AJ14" s="6">
         <v>164761</v>
       </c>
-      <c r="AK14" s="7">
+      <c r="AK14" s="6">
         <v>-122137</v>
       </c>
-      <c r="AL14" s="7">
+      <c r="AL14" s="6">
         <v>-4716697</v>
       </c>
-      <c r="AM14" s="7">
+      <c r="AM14" s="6">
         <v>-768867</v>
       </c>
-      <c r="AN14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="7">
+      <c r="AN14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="6">
         <v>-5360036</v>
       </c>
-      <c r="AP14" s="7">
+      <c r="AP14" s="6">
         <v>-721536</v>
       </c>
-      <c r="AQ14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="7">
+      <c r="AQ14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="6">
         <v>-284332</v>
       </c>
-      <c r="AS14" s="7">
+      <c r="AS14" s="6">
         <v>-6365904</v>
       </c>
-      <c r="AT14" s="7">
+      <c r="AT14" s="6">
         <v>-1906</v>
       </c>
-      <c r="AU14" s="7">
+      <c r="AU14" s="6">
         <v>-6367810</v>
       </c>
-      <c r="AV14" s="7">
+      <c r="AV14" s="6">
         <v>-6720</v>
       </c>
-      <c r="AW14" s="7">
+      <c r="AW14" s="6">
         <v>-6720</v>
       </c>
-      <c r="AX14" s="7">
+      <c r="AX14" s="6">
         <v>-6374530</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>44650</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>4803708.920547945</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>1244477.493150685</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>6048186.41369863</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>8681068.778082192</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>148104.4876712329</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>419755.66575342463</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>9248928.93150685</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>15297115.34520548</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>465937.6438356164</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>624230.101369863</v>
       </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
         <v>64001.01369863014</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>50538.19178082192</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <v>2578633.6465753424</v>
       </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7">
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
         <v>6474.109589041096</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="6">
         <v>4042197.9808219178</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="6">
         <v>651562.9506849315</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="6">
         <v>112469.64931506848</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="6">
         <v>764032.6000000001</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="6">
         <v>4806230.580821917</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="6">
         <v>10490884.764383562</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="Z15" s="6">
         <v>28463586.528767124</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="6">
         <v>453571.2931506849</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="6">
         <v>-18426273.057534248</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AC15" s="6">
         <v>10490884.764383562</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AD15" s="6">
         <v>161267.2301369863</v>
       </c>
-      <c r="AE15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="7">
+      <c r="AE15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="6">
         <v>64559.09863013699</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AG15" s="6">
         <v>-3252451.608219178</v>
       </c>
-      <c r="AH15" s="7">
+      <c r="AH15" s="6">
         <v>-181486.4191780822</v>
       </c>
-      <c r="AI15" s="7">
+      <c r="AI15" s="6">
         <v>-1618576.2821917809</v>
       </c>
-      <c r="AJ15" s="7">
+      <c r="AJ15" s="6">
         <v>169190.27397260274</v>
       </c>
-      <c r="AK15" s="7">
+      <c r="AK15" s="6">
         <v>-111698.15342465753</v>
       </c>
-      <c r="AL15" s="7">
+      <c r="AL15" s="6">
         <v>-4995022.189041096</v>
       </c>
-      <c r="AM15" s="7">
+      <c r="AM15" s="6">
         <v>-784480.2821917809</v>
       </c>
-      <c r="AN15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="7">
+      <c r="AN15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="6">
         <v>-6808117.693150685</v>
       </c>
-      <c r="AP15" s="7">
+      <c r="AP15" s="6">
         <v>506569.39178082184</v>
       </c>
-      <c r="AQ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="7">
+      <c r="AQ15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="6">
         <v>-312817.36438356165</v>
       </c>
-      <c r="AS15" s="7">
+      <c r="AS15" s="6">
         <v>-6554532.063013699</v>
       </c>
-      <c r="AT15" s="7">
+      <c r="AT15" s="6">
         <v>-42861.11780821918</v>
       </c>
-      <c r="AU15" s="7">
+      <c r="AU15" s="6">
         <v>-6597393.180821918</v>
       </c>
-      <c r="AV15" s="7">
+      <c r="AV15" s="6">
         <v>-510.96986301369907</v>
       </c>
-      <c r="AW15" s="7">
+      <c r="AW15" s="6">
         <v>-510.96986301369907</v>
       </c>
-      <c r="AX15" s="7">
+      <c r="AX15" s="6">
         <v>-6597904.150684931</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>44742</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>3789156.61369863</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>1202229.3287671232</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>4991385.942465753</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>7964489.852054794</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>157028.99178082193</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>544756.4438356165</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>8666275.287671233</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>13657661.230136987</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>446213.09589041094</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>676103.7342465754</v>
       </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
         <v>54841.34246575342</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>58186.79452054795</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <v>1817746.7643835617</v>
       </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-      <c r="S16" s="7">
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
         <v>5968.739726027397</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="6">
         <v>3572334.320547945</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <v>1249012.9671232877</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <v>115540.43287671232</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="6">
         <v>1364553.4000000001</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="6">
         <v>4936887.720547945</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="6">
         <v>8720773.50958904</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="Z16" s="6">
         <v>28471160.01917808</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="6">
         <v>518245.5287671233</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="6">
         <v>-20268632.038356163</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AC16" s="6">
         <v>8720773.50958904</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AD16" s="6">
         <v>198211.15342465753</v>
       </c>
-      <c r="AE16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="7">
+      <c r="AE16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="6">
         <v>1535.0657534246711</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AG16" s="6">
         <v>-3550721.405479452</v>
       </c>
-      <c r="AH16" s="7">
+      <c r="AH16" s="6">
         <v>-122129.27945205479</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="AI16" s="6">
         <v>-1682739.8547945207</v>
       </c>
-      <c r="AJ16" s="7">
+      <c r="AJ16" s="6">
         <v>173768.84931506848</v>
       </c>
-      <c r="AK16" s="7">
+      <c r="AK16" s="6">
         <v>-100907.43561643835</v>
       </c>
-      <c r="AL16" s="7">
+      <c r="AL16" s="6">
         <v>-5282729.126027397</v>
       </c>
-      <c r="AM16" s="7">
+      <c r="AM16" s="6">
         <v>-800619.8547945205</v>
       </c>
-      <c r="AN16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="7">
+      <c r="AN16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="6">
         <v>-8305011.128767123</v>
       </c>
-      <c r="AP16" s="7">
+      <c r="AP16" s="6">
         <v>1776071.594520548</v>
       </c>
-      <c r="AQ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="7">
+      <c r="AQ16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="6">
         <v>-342262.9095890411</v>
       </c>
-      <c r="AS16" s="7">
+      <c r="AS16" s="6">
         <v>-6749518.375342466</v>
       </c>
-      <c r="AT16" s="7">
+      <c r="AT16" s="6">
         <v>-85196.74520547946</v>
       </c>
-      <c r="AU16" s="7">
+      <c r="AU16" s="6">
         <v>-6834715.120547946</v>
       </c>
-      <c r="AV16" s="7">
+      <c r="AV16" s="6">
         <v>5907.353424657533</v>
       </c>
-      <c r="AW16" s="7">
+      <c r="AW16" s="6">
         <v>5907.353424657533</v>
       </c>
-      <c r="AX16" s="7">
+      <c r="AX16" s="6">
         <v>-6828807.767123288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>44834</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>2774604.306849315</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>1159981.1643835616</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>3934585.4712328766</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>7247910.926027397</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>165953.49589041097</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>669757.2219178082</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>8083621.643835616</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>12018207.115068493</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>426488.5479452055</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>727977.3671232876</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
         <v>45681.67123287671</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>65835.39726027398</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>1056859.882191781</v>
       </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7">
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
         <v>5463.369863013699</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <v>3102470.6602739724</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>1846462.9835616439</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <v>118611.21643835616</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="6">
         <v>1965074.2000000002</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="6">
         <v>5067544.860273972</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="6">
         <v>6950662.25479452</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z17" s="6">
         <v>28478733.50958904</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="6">
         <v>582919.7643835617</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="6">
         <v>-22110991.01917808</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AC17" s="6">
         <v>6950662.25479452</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AD17" s="6">
         <v>235155.07671232877</v>
       </c>
-      <c r="AE17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="7">
+      <c r="AE17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="6">
         <v>-61488.967123287664</v>
       </c>
-      <c r="AG17" s="7">
+      <c r="AG17" s="6">
         <v>-3848991.202739726</v>
       </c>
-      <c r="AH17" s="7">
+      <c r="AH17" s="6">
         <v>-62772.139726027395</v>
       </c>
-      <c r="AI17" s="7">
+      <c r="AI17" s="6">
         <v>-1746903.4273972604</v>
       </c>
-      <c r="AJ17" s="7">
+      <c r="AJ17" s="6">
         <v>178347.42465753423</v>
       </c>
-      <c r="AK17" s="7">
+      <c r="AK17" s="6">
         <v>-90116.71780821917</v>
       </c>
-      <c r="AL17" s="7">
+      <c r="AL17" s="6">
         <v>-5570436.063013699</v>
       </c>
-      <c r="AM17" s="7">
+      <c r="AM17" s="6">
         <v>-816759.4273972602</v>
       </c>
-      <c r="AN17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="7">
+      <c r="AN17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="6">
         <v>-9801904.564383563</v>
       </c>
-      <c r="AP17" s="7">
+      <c r="AP17" s="6">
         <v>3045573.797260274</v>
       </c>
-      <c r="AQ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="7">
+      <c r="AQ17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="6">
         <v>-371708.4547945205</v>
       </c>
-      <c r="AS17" s="7">
+      <c r="AS17" s="6">
         <v>-6944504.687671233</v>
       </c>
-      <c r="AT17" s="7">
+      <c r="AT17" s="6">
         <v>-127532.37260273972</v>
       </c>
-      <c r="AU17" s="7">
+      <c r="AU17" s="6">
         <v>-7072037.060273973</v>
       </c>
-      <c r="AV17" s="7">
+      <c r="AV17" s="6">
         <v>12325.676712328766</v>
       </c>
-      <c r="AW17" s="7">
+      <c r="AW17" s="6">
         <v>12325.676712328766</v>
       </c>
-      <c r="AX17" s="7">
+      <c r="AX17" s="6">
         <v>-7059711.383561644</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>44926</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>12</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>1760052</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>1117733</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>2877785</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>6531332</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>174878</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>794758</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>7500968</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>10378753</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>406764</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>779851</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>946878</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <v>36522</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <v>73484</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="6">
         <v>295973</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="6">
         <v>54156</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="6">
         <v>34021</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="6">
         <v>4958</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="6">
         <v>2632607</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="6">
         <v>2443913</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="6">
         <v>121682</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="6">
         <v>2565595</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="6">
         <v>5198202</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="6">
         <v>5180551</v>
       </c>
-      <c r="Z18" s="7">
+      <c r="Z18" s="6">
         <v>28486307</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA18" s="6">
         <v>647594</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="6">
         <v>-23953350</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="6">
         <v>5180551</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AD18" s="6">
         <v>272099</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AE18" s="6">
         <v>-396612</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AF18" s="6">
         <v>-124513</v>
       </c>
-      <c r="AG18" s="7">
+      <c r="AG18" s="6">
         <v>-4147261</v>
       </c>
-      <c r="AH18" s="7">
+      <c r="AH18" s="6">
         <v>-3415</v>
       </c>
-      <c r="AI18" s="7">
+      <c r="AI18" s="6">
         <v>-1811067</v>
       </c>
-      <c r="AJ18" s="7">
+      <c r="AJ18" s="6">
         <v>182926</v>
       </c>
-      <c r="AK18" s="7">
+      <c r="AK18" s="6">
         <v>-79326</v>
       </c>
-      <c r="AL18" s="7">
+      <c r="AL18" s="6">
         <v>-5858143</v>
       </c>
-      <c r="AM18" s="7">
+      <c r="AM18" s="6">
         <v>-832899</v>
       </c>
-      <c r="AN18" s="7">
+      <c r="AN18" s="6">
         <v>-4483243</v>
       </c>
-      <c r="AO18" s="7">
+      <c r="AO18" s="6">
         <v>-11298798</v>
       </c>
-      <c r="AP18" s="7">
+      <c r="AP18" s="6">
         <v>4315076</v>
       </c>
-      <c r="AQ18" s="7">
+      <c r="AQ18" s="6">
         <v>245385</v>
       </c>
-      <c r="AR18" s="7">
+      <c r="AR18" s="6">
         <v>-401154</v>
       </c>
-      <c r="AS18" s="7">
+      <c r="AS18" s="6">
         <v>-7139491</v>
       </c>
-      <c r="AT18" s="7">
+      <c r="AT18" s="6">
         <v>-169868</v>
       </c>
-      <c r="AU18" s="7">
+      <c r="AU18" s="6">
         <v>-7309359</v>
       </c>
-      <c r="AV18" s="7">
+      <c r="AV18" s="6">
         <v>18744</v>
       </c>
-      <c r="AW18" s="7">
+      <c r="AW18" s="6">
         <v>18744</v>
       </c>
-      <c r="AX18" s="7">
+      <c r="AX18" s="6">
         <v>-7290615</v>
       </c>
     </row>

--- a/financial_data/kleos.xlsx
+++ b/financial_data/kleos.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/untitled folder 3/space_econometrics/financial_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinten/Desktop/financial_data/20240817/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33F5D5B-8BC3-724B-A63F-A90573198316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E322E9EC-9DF5-CE4C-B1FC-2860C57BFB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="520" windowWidth="17240" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidated" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Quarter</t>
   </si>
@@ -166,9 +179,6 @@
     <t>Total comprehensive income for the year attributable to the owners of Kleos Space S.A.</t>
   </si>
   <si>
-    <t xml:space="preserve">Adjusted EBITDA </t>
-  </si>
-  <si>
     <t>Cash flow from operating activities</t>
   </si>
   <si>
@@ -179,27 +189,27 @@
   </si>
   <si>
     <t>depreciation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBITDA </t>
+  </si>
+  <si>
+    <t>ammortization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="\$#,##0_);\(\$#,##0\)"/>
     <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0_);[Red]\([$$-409]#,##0\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -249,16 +259,6 @@
       <name val="CIDFont+F5"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ArialMT"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ArialMT"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Barlow"/>
@@ -266,6 +266,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF585555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -297,24 +303,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -326,38 +329,27 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,835 +655,906 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BC21"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:BD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="55" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="30" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15" style="8" customWidth="1"/>
+    <col min="48" max="49" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" ht="137.25" customHeight="1">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="137.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="19.5" customHeight="1">
+    <row r="2" spans="1:56" ht="19.5" customHeight="1">
       <c r="A2" s="2">
         <v>43465</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13">
+      <c r="C2" s="13">
+        <v>-3023514</v>
+      </c>
+      <c r="D2" s="14">
         <v>-2854357</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="14">
         <v>-1256860</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="14">
         <v>7918253</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="14">
         <v>6099</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
         <v>4263626</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="15">
         <v>1063837</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="15">
         <v>5327463</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="15">
         <v>1917761</v>
       </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="M2" s="15">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15">
+        <v>0</v>
+      </c>
+      <c r="O2" s="15">
         <v>1917761</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="15">
         <v>7245224</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="15">
         <v>728710</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="15">
         <v>754189</v>
       </c>
-      <c r="R2" s="6">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
+      <c r="S2" s="15">
+        <v>0</v>
+      </c>
+      <c r="T2" s="15">
+        <v>0</v>
+      </c>
+      <c r="U2" s="15">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15">
+        <v>0</v>
+      </c>
+      <c r="W2" s="15">
+        <v>0</v>
+      </c>
+      <c r="X2" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="15">
         <v>717</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Z2" s="15">
         <v>1483616</v>
       </c>
-      <c r="Z2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="6">
+      <c r="AA2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="15">
         <v>1483616</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AE2" s="15">
         <v>5761608</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AF2" s="15">
         <v>7687994</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AG2" s="15">
         <v>459012</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AH2" s="15">
         <v>-2385398</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AI2" s="15">
         <v>5761608</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AJ2" s="15">
         <v>827709</v>
       </c>
-      <c r="AJ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="6">
+      <c r="AK2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="15">
         <v>-1680479</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AN2" s="15">
         <v>-113932</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AO2" s="15">
         <v>-1209669</v>
       </c>
-      <c r="AO2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="6">
+      <c r="AP2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="15">
         <v>-10570</v>
       </c>
-      <c r="AQ2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="6">
+      <c r="AR2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="15">
         <v>-6099</v>
       </c>
-      <c r="AS2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="6">
+      <c r="AT2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="15">
         <v>-3029753</v>
       </c>
-      <c r="AU2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="6">
+      <c r="AV2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="15">
         <v>140</v>
       </c>
-      <c r="AW2" s="6">
+      <c r="AX2" s="15">
         <v>-9004</v>
       </c>
-      <c r="AX2" s="6">
+      <c r="AY2" s="15">
         <v>-2201904</v>
       </c>
-      <c r="AY2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="6">
+      <c r="AZ2" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="15">
         <v>-2201904</v>
       </c>
-      <c r="BA2" s="6">
+      <c r="BB2" s="15">
         <v>482</v>
       </c>
-      <c r="BB2" s="6">
+      <c r="BC2" s="15">
         <v>482</v>
       </c>
-      <c r="BC2" s="6">
+      <c r="BD2" s="15">
         <v>-2201422</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="19.5" customHeight="1">
+    <row r="3" spans="1:56" ht="19.5" customHeight="1">
       <c r="A3" s="2">
         <v>43554</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="6">
+      <c r="C3" s="13">
+        <v>-3272120.2602739725</v>
+      </c>
+      <c r="D3" s="16">
+        <v>-3363965.1479452052</v>
+      </c>
+      <c r="E3" s="16">
+        <v>-1080313.9917808219</v>
+      </c>
+      <c r="F3" s="16">
+        <v>6354780.7342465753</v>
+      </c>
+      <c r="G3" s="16">
+        <v>19445.586301369862</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
         <v>3295346.7205479452</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="15">
         <v>1392407.687671233</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="15">
         <v>4687754.4082191782</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="15">
         <v>2045812.0054794522</v>
       </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15">
         <v>2054405.5041095892</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="15">
         <v>6742159.9123287676</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="15">
         <v>635104.1890410959</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="15">
         <v>619889.95068493148</v>
       </c>
-      <c r="R3" s="6">
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <v>0</v>
-      </c>
-      <c r="U3" s="6">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
-        <v>0</v>
-      </c>
-      <c r="W3" s="6">
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
+      <c r="S3" s="15">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15">
+        <v>0</v>
+      </c>
+      <c r="U3" s="15">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15">
+        <v>0</v>
+      </c>
+      <c r="W3" s="15">
+        <v>0</v>
+      </c>
+      <c r="X3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="15">
         <v>542.16986301369866</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Z3" s="15">
         <v>1656361.3424657534</v>
       </c>
-      <c r="Z3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
+      <c r="AA3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="15">
         <v>1656361.3424657534</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AE3" s="15">
         <v>5085798.5698630139</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AF3" s="15">
         <v>7687994</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AG3" s="15">
         <v>520206.69315068494</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AH3" s="15">
         <v>-3122402.1232876712</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AI3" s="15">
         <v>5085798.5698630139</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AJ3" s="15">
         <v>772335.63835616433</v>
       </c>
-      <c r="AJ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="6">
+      <c r="AK3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="15">
         <v>-1828381.6383561646</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AN3" s="15">
         <v>-134031.36986301371</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AO3" s="15">
         <v>-1220620.1452054793</v>
       </c>
-      <c r="AO3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="6">
+      <c r="AP3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="15">
         <v>-24775.375342465752</v>
       </c>
-      <c r="AQ3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="6">
+      <c r="AR3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="15">
         <v>-19445.586301369862</v>
       </c>
-      <c r="AS3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="6">
+      <c r="AT3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="15">
         <v>-3291737.0575342467</v>
       </c>
-      <c r="AU3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="6">
+      <c r="AV3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="15">
         <v>171.21095890410959</v>
       </c>
-      <c r="AW3" s="6">
+      <c r="AX3" s="15">
         <v>-64482.942465753425</v>
       </c>
-      <c r="AX3" s="6">
+      <c r="AY3" s="15">
         <v>-2519230.208219178</v>
       </c>
-      <c r="AY3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="6">
+      <c r="AZ3" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="15">
         <v>-2519230.208219178</v>
       </c>
-      <c r="BA3" s="6">
+      <c r="BB3" s="15">
         <v>64.797260273972597</v>
       </c>
-      <c r="BB3" s="6">
+      <c r="BC3" s="15">
         <v>64.797260273972597</v>
       </c>
-      <c r="BC3" s="6">
+      <c r="BD3" s="15">
         <v>-2519165.4109589038</v>
       </c>
     </row>
-    <row r="4" spans="1:55" ht="19.5" customHeight="1">
+    <row r="4" spans="1:56" ht="19.5" customHeight="1">
       <c r="A4" s="2">
         <v>43646</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="6">
+      <c r="C4" s="13">
+        <v>-3529106.506849315</v>
+      </c>
+      <c r="D4" s="16">
+        <v>-3890751.0986301368</v>
+      </c>
+      <c r="E4" s="16">
+        <v>-897816.99452054792</v>
+      </c>
+      <c r="F4" s="16">
+        <v>4738607.1561643835</v>
+      </c>
+      <c r="G4" s="16">
+        <v>33242.057534246575</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
         <v>2294428.8136986298</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="15">
         <v>1732053.791780822</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="15">
         <v>4026482.6054794518</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="15">
         <v>2178179.3369863015</v>
       </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15">
         <v>2195656.0027397261</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="15">
         <v>6222138.6082191784</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="15">
         <v>538343.12602739723</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="15">
         <v>481063.96712328767</v>
       </c>
-      <c r="R4" s="6">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0</v>
-      </c>
-      <c r="U4" s="6">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0</v>
-      </c>
-      <c r="X4" s="6">
+      <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0</v>
+      </c>
+      <c r="X4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="15">
         <v>361.44657534246574</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Z4" s="15">
         <v>1834929.5616438356</v>
       </c>
-      <c r="Z4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="6">
+      <c r="AA4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="15">
         <v>1834929.5616438356</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AE4" s="15">
         <v>4387209.0465753423</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AF4" s="15">
         <v>7687994</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AG4" s="15">
         <v>583464.12876712333</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AH4" s="15">
         <v>-3884249.0821917807</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AI4" s="15">
         <v>4387209.0465753423</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AJ4" s="15">
         <v>715095.75890410959</v>
       </c>
-      <c r="AJ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="6">
+      <c r="AK4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="15">
         <v>-1981269.7589041097</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AN4" s="15">
         <v>-154808.24657534246</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AO4" s="15">
         <v>-1231940.4301369863</v>
       </c>
-      <c r="AO4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="6">
+      <c r="AP4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="15">
         <v>-39459.583561643834</v>
       </c>
-      <c r="AQ4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="6">
+      <c r="AR4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="15">
         <v>-33242.057534246575</v>
       </c>
-      <c r="AS4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="6">
+      <c r="AT4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="15">
         <v>-3562552.0383561645</v>
       </c>
-      <c r="AU4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="6">
+      <c r="AV4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="15">
         <v>203.47397260273971</v>
       </c>
-      <c r="AW4" s="6">
+      <c r="AX4" s="15">
         <v>-121831.96164383562</v>
       </c>
-      <c r="AX4" s="6">
+      <c r="AY4" s="15">
         <v>-2847252.805479452</v>
       </c>
-      <c r="AY4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="6">
+      <c r="AZ4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="15">
         <v>-2847252.805479452</v>
       </c>
-      <c r="BA4" s="6">
+      <c r="BB4" s="15">
         <v>-366.46849315068494</v>
       </c>
-      <c r="BB4" s="6">
+      <c r="BC4" s="15">
         <v>-366.46849315068494</v>
       </c>
-      <c r="BC4" s="6">
+      <c r="BD4" s="15">
         <v>-2847619.2739726026</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="19.5" customHeight="1">
+    <row r="5" spans="1:56" ht="19.5" customHeight="1">
       <c r="A5" s="2">
         <v>43738</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="6">
+      <c r="C5" s="13">
+        <v>-3786092.7534246575</v>
+      </c>
+      <c r="D5" s="16">
+        <v>-4417537.0493150689</v>
+      </c>
+      <c r="E5" s="16">
+        <v>-715319.9972602739</v>
+      </c>
+      <c r="F5" s="16">
+        <v>3122433.5780821918</v>
+      </c>
+      <c r="G5" s="16">
+        <v>47038.528767123287</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
         <v>1293510.9068493149</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="15">
         <v>2071699.895890411</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="15">
         <v>3365210.8027397259</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="15">
         <v>2310546.6684931507</v>
       </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
         <v>2336906.5013698628</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="15">
         <v>5702117.3041095892</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="15">
         <v>441582.06301369861</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="15">
         <v>342237.98356164386</v>
       </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="6">
-        <v>0</v>
-      </c>
-      <c r="V5" s="6">
-        <v>0</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0</v>
-      </c>
-      <c r="X5" s="6">
+      <c r="S5" s="15">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="15">
         <v>180.72328767123287</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Z5" s="15">
         <v>2013497.7808219178</v>
       </c>
-      <c r="Z5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="6">
+      <c r="AA5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15">
         <v>2013497.7808219178</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AE5" s="15">
         <v>3688619.5232876712</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AF5" s="15">
         <v>7687994</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AG5" s="15">
         <v>646721.56438356172</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AH5" s="15">
         <v>-4646096.0410958901</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AI5" s="15">
         <v>3688619.5232876712</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AJ5" s="15">
         <v>657855.87945205485</v>
       </c>
-      <c r="AJ5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="6">
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="15">
         <v>-2134157.8794520549</v>
       </c>
-      <c r="AM5" s="6">
+      <c r="AN5" s="15">
         <v>-175585.12328767125</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AO5" s="15">
         <v>-1243260.715068493</v>
       </c>
-      <c r="AO5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="6">
+      <c r="AP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="15">
         <v>-54143.791780821921</v>
       </c>
-      <c r="AQ5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="6">
+      <c r="AR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="15">
         <v>-47038.528767123287</v>
       </c>
-      <c r="AS5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="6">
+      <c r="AT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="15">
         <v>-3833367.0191780822</v>
       </c>
-      <c r="AU5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="6">
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
         <v>235.73698630136985</v>
       </c>
-      <c r="AW5" s="6">
+      <c r="AX5" s="15">
         <v>-179180.98082191782</v>
       </c>
-      <c r="AX5" s="6">
+      <c r="AY5" s="15">
         <v>-3175275.402739726</v>
       </c>
-      <c r="AY5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="6">
+      <c r="AZ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="15">
         <v>-3175275.402739726</v>
       </c>
-      <c r="BA5" s="6">
+      <c r="BB5" s="15">
         <v>-797.73424657534247</v>
       </c>
-      <c r="BB5" s="6">
+      <c r="BC5" s="15">
         <v>-797.73424657534247</v>
       </c>
-      <c r="BC5" s="6">
+      <c r="BD5" s="15">
         <v>-3176073.1369863013</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="19.5" customHeight="1">
+    <row r="6" spans="1:56" ht="19.5" customHeight="1">
       <c r="A6" s="2">
         <v>43830</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13">
+        <v>-4043079</v>
+      </c>
       <c r="D6" s="17">
         <v>-4944323</v>
       </c>
@@ -1504,630 +1567,674 @@
       <c r="G6" s="17">
         <v>60835</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
         <v>292593</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="15">
         <v>2411346</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="15">
         <v>2703939</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="15">
         <v>2442914</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="15">
         <v>35243</v>
       </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
         <v>2478157</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="15">
         <v>5182096</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="15">
         <v>344821</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="15">
         <v>203412</v>
       </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
         <v>1601198</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="15">
         <v>36602</v>
       </c>
-      <c r="U6" s="6">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6">
+      <c r="V6" s="15">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15">
         <v>2192066</v>
       </c>
-      <c r="Z6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="6">
+      <c r="AA6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
         <v>2192066</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AE6" s="15">
         <v>2990030</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AF6" s="15">
         <v>7687994</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AG6" s="15">
         <v>709979</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AH6" s="15">
         <v>-5407943</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AI6" s="15">
         <v>2990030</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AJ6" s="15">
         <v>600616</v>
       </c>
-      <c r="AJ6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="6">
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="15">
         <v>-2287046</v>
       </c>
-      <c r="AM6" s="6">
+      <c r="AN6" s="15">
         <v>-196362</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AO6" s="15">
         <v>-1254581</v>
       </c>
-      <c r="AO6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="6">
+      <c r="AP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="15">
         <v>-68828</v>
       </c>
-      <c r="AQ6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="6">
+      <c r="AR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="15">
         <v>-60835</v>
       </c>
-      <c r="AS6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="6">
+      <c r="AT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="15">
         <v>-4104182</v>
       </c>
-      <c r="AU6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="6">
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
         <v>268</v>
       </c>
-      <c r="AW6" s="6">
+      <c r="AX6" s="15">
         <v>-236530</v>
       </c>
-      <c r="AX6" s="6">
+      <c r="AY6" s="15">
         <v>-3503298</v>
       </c>
-      <c r="AY6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="6">
+      <c r="AZ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
         <v>-3503298</v>
       </c>
-      <c r="BA6" s="6">
+      <c r="BB6" s="15">
         <v>-1229</v>
       </c>
-      <c r="BB6" s="6">
+      <c r="BC6" s="15">
         <v>-1229</v>
       </c>
-      <c r="BC6" s="6">
+      <c r="BD6" s="15">
         <v>-3504527</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="19.5" customHeight="1">
+    <row r="7" spans="1:56" ht="19.5" customHeight="1">
       <c r="A7" s="2">
         <v>43920</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="6">
+      <c r="C7" s="13">
+        <v>-4145863.1475409837</v>
+      </c>
+      <c r="D7" s="16">
+        <v>-4591469.8852459015</v>
+      </c>
+      <c r="E7" s="16">
+        <v>-686509.55737704923</v>
+      </c>
+      <c r="F7" s="16">
+        <v>4864052.0491803279</v>
+      </c>
+      <c r="G7" s="16">
+        <v>56501.967213114753</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
         <v>2873421.6885245899</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="15">
         <v>1977972.3934426229</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="15">
         <v>4851394.0819672132</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="15">
         <v>3186538.5081967218</v>
       </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
         <v>3213115.1967213117</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="15">
         <v>8064509.2786885239</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="15">
         <v>364048.78688524588</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="15">
         <v>232842.49180327871</v>
       </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
+      <c r="S7" s="15">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
         <v>2059780.4590163932</v>
       </c>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0</v>
-      </c>
-      <c r="V7" s="6">
-        <v>0</v>
-      </c>
-      <c r="W7" s="6">
-        <v>0</v>
-      </c>
-      <c r="X7" s="6">
+      <c r="U7" s="15">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15">
         <v>128.85245901639342</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Z7" s="15">
         <v>2894026.9016393442</v>
       </c>
-      <c r="Z7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="6">
+      <c r="AA7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
         <v>2894026.9016393442</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AE7" s="15">
         <v>5170482.3770491797</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AF7" s="15">
         <v>11174876.295081966</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AG7" s="15">
         <v>600656.78688524594</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AH7" s="15">
         <v>-6605050.7049180325</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AI7" s="15">
         <v>5170482.3770491797</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AJ7" s="15">
         <v>496256.32786885242</v>
       </c>
-      <c r="AJ7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="6">
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="15">
         <v>-2040893.5409836066</v>
       </c>
-      <c r="AM7" s="6">
+      <c r="AN7" s="15">
         <v>-270131.26229508198</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AO7" s="15">
         <v>-1265428.4590163934</v>
       </c>
-      <c r="AO7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="6">
+      <c r="AP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="15">
         <v>-80991.524590163928</v>
       </c>
-      <c r="AQ7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="6">
+      <c r="AR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="15">
         <v>-56501.967213114753</v>
       </c>
-      <c r="AS7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="6">
+      <c r="AT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="15">
         <v>-4202365.1147540985</v>
       </c>
-      <c r="AU7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="6">
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
         <v>-488418.36065573769</v>
       </c>
-      <c r="AX7" s="6">
+      <c r="AY7" s="15">
         <v>-3838938.9836065574</v>
       </c>
-      <c r="AY7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="6">
+      <c r="AZ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
         <v>-3838938.9836065574</v>
       </c>
-      <c r="BA7" s="6">
+      <c r="BB7" s="15">
         <v>-712.60655737704917</v>
       </c>
-      <c r="BB7" s="6">
+      <c r="BC7" s="15">
         <v>-712.60655737704917</v>
       </c>
-      <c r="BC7" s="6">
+      <c r="BD7" s="15">
         <v>-3839651.5901639345</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="19.5" customHeight="1">
+    <row r="8" spans="1:56" ht="19.5" customHeight="1">
       <c r="A8" s="2">
         <v>44012</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="6">
+      <c r="C8" s="13">
+        <v>-4250657.4316939889</v>
+      </c>
+      <c r="D8" s="16">
+        <v>-4230775.590163934</v>
+      </c>
+      <c r="E8" s="16">
+        <v>-843611.37158469949</v>
+      </c>
+      <c r="F8" s="16">
+        <v>8296461.6994535513</v>
+      </c>
+      <c r="G8" s="16">
+        <v>52072.644808743171</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
         <v>5511602.1256830599</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="15">
         <v>1534968.2622950817</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="15">
         <v>7046570.3879781421</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="15">
         <v>3946688.0054644812</v>
       </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15">
         <v>3964405.7978142076</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="15">
         <v>11010976.185792349</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="15">
         <v>383703.85792349727</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="15">
         <v>262926.99453551916</v>
       </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
         <v>2528553.639344262</v>
       </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6">
-        <v>0</v>
-      </c>
-      <c r="W8" s="6">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6">
+      <c r="U8" s="15">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
+        <v>0</v>
+      </c>
+      <c r="X8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="15">
         <v>260.56830601092895</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Z8" s="15">
         <v>3611586.9344262294</v>
       </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="6">
+      <c r="AA8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="15">
         <v>3611586.9344262294</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AE8" s="15">
         <v>7399389.2513661198</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AF8" s="15">
         <v>14739244.863387978</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AG8" s="15">
         <v>488905.19125683059</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AH8" s="15">
         <v>-7828760.8032786883</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AI8" s="15">
         <v>7399389.2513661198</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AJ8" s="15">
         <v>389577.55191256828</v>
       </c>
-      <c r="AJ8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="6">
+      <c r="AK8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="15">
         <v>-1789271.0273224043</v>
       </c>
-      <c r="AM8" s="6">
+      <c r="AN8" s="15">
         <v>-345539.84153005469</v>
       </c>
-      <c r="AN8" s="6">
+      <c r="AO8" s="15">
         <v>-1276516.9726775957</v>
       </c>
-      <c r="AO8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="6">
+      <c r="AP8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="15">
         <v>-93425.349726775952</v>
       </c>
-      <c r="AQ8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="6">
+      <c r="AR8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="15">
         <v>-52072.644808743171</v>
       </c>
-      <c r="AS8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="6">
+      <c r="AT8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="15">
         <v>-4302730.076502732</v>
       </c>
-      <c r="AU8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="6">
+      <c r="AV8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="15">
         <v>-745904.24043715838</v>
       </c>
-      <c r="AX8" s="6">
+      <c r="AY8" s="15">
         <v>-4182038.6557377051</v>
       </c>
-      <c r="AY8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="6">
+      <c r="AZ8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="15">
         <v>-4182038.6557377051</v>
       </c>
-      <c r="BA8" s="6">
+      <c r="BB8" s="15">
         <v>-184.7377049180327</v>
       </c>
-      <c r="BB8" s="6">
+      <c r="BC8" s="15">
         <v>-184.7377049180327</v>
       </c>
-      <c r="BC8" s="6">
+      <c r="BD8" s="15">
         <v>-4182223.3934426229</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="19.5" customHeight="1">
+    <row r="9" spans="1:56" ht="19.5" customHeight="1">
       <c r="A9" s="2">
         <v>44104</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="6">
+      <c r="C9" s="13">
+        <v>-4355451.7158469949</v>
+      </c>
+      <c r="D9" s="16">
+        <v>-3870081.295081967</v>
+      </c>
+      <c r="E9" s="16">
+        <v>-1000713.1857923497</v>
+      </c>
+      <c r="F9" s="16">
+        <v>11728871.349726776</v>
+      </c>
+      <c r="G9" s="16">
+        <v>47643.322404371589</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
         <v>8149782.56284153</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="15">
         <v>1091964.1311475409</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="15">
         <v>9241746.693989072</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="15">
         <v>4706837.5027322406</v>
       </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
         <v>4715696.3989071036</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="15">
         <v>13957443.092896175</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="15">
         <v>403358.92896174861</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="15">
         <v>293011.49726775958</v>
       </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
+      <c r="S9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
         <v>2997326.819672131</v>
       </c>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
-      <c r="X9" s="6">
+      <c r="U9" s="15">
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
+      <c r="X9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="15">
         <v>392.28415300546447</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Z9" s="15">
         <v>4329146.9672131147</v>
       </c>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="6">
+      <c r="AA9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
         <v>4329146.9672131147</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AE9" s="15">
         <v>9628296.1256830599</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AF9" s="15">
         <v>18303613.43169399</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AG9" s="15">
         <v>377153.59562841529</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AH9" s="15">
         <v>-9052470.9016393442</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AI9" s="15">
         <v>9628296.1256830599</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AJ9" s="15">
         <v>282898.77595628414</v>
       </c>
-      <c r="AJ9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="6">
+      <c r="AK9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="15">
         <v>-1537648.513661202</v>
       </c>
-      <c r="AM9" s="6">
+      <c r="AN9" s="15">
         <v>-420948.42076502735</v>
       </c>
-      <c r="AN9" s="6">
+      <c r="AO9" s="15">
         <v>-1287605.486338798</v>
       </c>
-      <c r="AO9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="6">
+      <c r="AP9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="15">
         <v>-105859.17486338798</v>
       </c>
-      <c r="AQ9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="6">
+      <c r="AR9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="15">
         <v>-47643.322404371589</v>
       </c>
-      <c r="AS9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="6">
+      <c r="AT9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="15">
         <v>-4403095.0382513665</v>
       </c>
-      <c r="AU9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="6">
+      <c r="AV9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="15">
         <v>-1003390.1202185792</v>
       </c>
-      <c r="AX9" s="6">
+      <c r="AY9" s="15">
         <v>-4525138.3278688528</v>
       </c>
-      <c r="AY9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="6">
+      <c r="AZ9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="15">
         <v>-4525138.3278688528</v>
       </c>
-      <c r="BA9" s="6">
+      <c r="BB9" s="15">
         <v>343.13114754098365</v>
       </c>
-      <c r="BB9" s="6">
+      <c r="BC9" s="15">
         <v>343.13114754098365</v>
       </c>
-      <c r="BC9" s="6">
+      <c r="BD9" s="15">
         <v>-4524795.1967213117</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="19.5" customHeight="1">
+    <row r="10" spans="1:56" ht="19.5" customHeight="1">
       <c r="A10" s="2">
         <v>44196</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="13">
+        <v>-4460246</v>
+      </c>
       <c r="D10" s="17">
         <v>-3509387</v>
       </c>
@@ -2137,1446 +2244,1540 @@
       <c r="F10" s="17">
         <v>15161281</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="18">
         <v>43214</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
         <v>10787963</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="15">
         <v>648960</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="15">
         <v>11436923</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="15">
         <v>5466987</v>
       </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
         <v>5466987</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="15">
         <v>16903910</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="15">
         <v>423014</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="15">
         <v>323096</v>
       </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
+      <c r="S10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
         <v>3466100</v>
       </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
         <v>833973</v>
       </c>
-      <c r="V10" s="6">
-        <v>0</v>
-      </c>
-      <c r="W10" s="6">
-        <v>0</v>
-      </c>
-      <c r="X10" s="6">
+      <c r="W10" s="15">
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
         <v>524</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Z10" s="15">
         <v>5046707</v>
       </c>
-      <c r="Z10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="6">
+      <c r="AA10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
         <v>5046707</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AE10" s="15">
         <v>11857203</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AF10" s="15">
         <v>21867982</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AG10" s="15">
         <v>265402</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AH10" s="15">
         <v>-10276181</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AI10" s="15">
         <v>11857203</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AJ10" s="15">
         <v>176220</v>
       </c>
-      <c r="AJ10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="6">
+      <c r="AK10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="15">
         <v>-1286026</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AN10" s="15">
         <v>-496357</v>
       </c>
-      <c r="AN10" s="6">
+      <c r="AO10" s="15">
         <v>-1298694</v>
       </c>
-      <c r="AO10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="6">
+      <c r="AP10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="15">
         <v>-118293</v>
       </c>
-      <c r="AQ10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="6">
+      <c r="AR10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="15">
         <v>-43214</v>
       </c>
-      <c r="AS10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="6">
+      <c r="AT10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="15">
         <v>-4503460</v>
       </c>
-      <c r="AU10" s="6">
+      <c r="AV10" s="15">
         <v>-540998</v>
       </c>
-      <c r="AV10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="6">
+      <c r="AW10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="15">
         <v>-1260876</v>
       </c>
-      <c r="AX10" s="6">
+      <c r="AY10" s="15">
         <v>-4868238</v>
       </c>
-      <c r="AY10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="6">
+      <c r="AZ10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="15">
         <v>-4868238</v>
       </c>
-      <c r="BA10" s="6">
+      <c r="BB10" s="15">
         <v>871</v>
       </c>
-      <c r="BB10" s="6">
+      <c r="BC10" s="15">
         <v>871</v>
       </c>
-      <c r="BC10" s="6">
+      <c r="BD10" s="15">
         <v>-4867367</v>
       </c>
     </row>
-    <row r="11" spans="1:55" ht="19.5" customHeight="1">
+    <row r="11" spans="1:56" ht="19.5" customHeight="1">
       <c r="A11" s="2">
         <v>44285</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="6">
+      <c r="C11" s="13">
+        <v>-4492169.6904109595</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-3908266.2246575346</v>
+      </c>
+      <c r="E11" s="16">
+        <v>-1971438.8575342465</v>
+      </c>
+      <c r="F11" s="16">
+        <v>12594929.668493152</v>
+      </c>
+      <c r="G11" s="16">
+        <v>220154.04657534248</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
         <v>9568105.8356164377</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="15">
         <v>804134.06027397257</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="15">
         <v>10372239.895890411</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="15">
         <v>6419724.4410958905</v>
       </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M11" s="15">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
         <v>6526598.0794520546</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="15">
         <v>16898837.975342464</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="15">
         <v>438133.0273972603</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="15">
         <v>384287.03561643837</v>
       </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
+      <c r="S11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
         <v>2638707.7205479452</v>
       </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
         <v>1438864.791780822</v>
       </c>
-      <c r="V11" s="6">
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
+      <c r="W11" s="15">
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="15">
         <v>2094.0575342465754</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Z11" s="15">
         <v>4912605.4575342461</v>
       </c>
-      <c r="Z11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6">
+      <c r="AA11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
         <v>4957250.2958904104</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AE11" s="15">
         <v>11941587.679452056</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AF11" s="15">
         <v>23474438.827397261</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AG11" s="15">
         <v>296028.72876712331</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AH11" s="15">
         <v>-11828879.87671233</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AI11" s="15">
         <v>11941587.679452056</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AJ11" s="15">
         <v>163859.48493150686</v>
       </c>
-      <c r="AJ11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="6">
+      <c r="AK11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="15">
         <v>-1695153.3917808218</v>
       </c>
-      <c r="AM11" s="6">
+      <c r="AN11" s="15">
         <v>-433581.76438356168</v>
       </c>
-      <c r="AN11" s="6">
+      <c r="AO11" s="15">
         <v>-1361557.5041095892</v>
       </c>
-      <c r="AO11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="6">
+      <c r="AP11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="15">
         <v>-119230.30410958904</v>
       </c>
-      <c r="AQ11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="6">
+      <c r="AR11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="15">
         <v>-220154.04657534248</v>
       </c>
-      <c r="AS11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="6">
+      <c r="AT11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="15">
         <v>-4712323.7369863018</v>
       </c>
-      <c r="AU11" s="6">
+      <c r="AV11" s="15">
         <v>-585019.59452054801</v>
       </c>
-      <c r="AV11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="6">
+      <c r="AW11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="15">
         <v>-1022759.791780822</v>
       </c>
-      <c r="AX11" s="6">
+      <c r="AY11" s="15">
         <v>-5233422.312328767</v>
       </c>
-      <c r="AY11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="6">
+      <c r="AZ11" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="15">
         <v>-5233887.0630136989</v>
       </c>
-      <c r="BA11" s="6">
+      <c r="BB11" s="15">
         <v>-979.9561643835616</v>
       </c>
-      <c r="BB11" s="6">
+      <c r="BC11" s="15">
         <v>-979.9561643835616</v>
       </c>
-      <c r="BC11" s="6">
+      <c r="BD11" s="15">
         <v>-5234867.0191780822</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="19.5" customHeight="1">
+    <row r="12" spans="1:56" ht="19.5" customHeight="1">
       <c r="A12" s="2">
         <v>44377</v>
       </c>
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="6">
+      <c r="C12" s="13">
+        <v>-4525169.4602739727</v>
+      </c>
+      <c r="D12" s="16">
+        <v>-4320590.8164383564</v>
+      </c>
+      <c r="E12" s="16">
+        <v>-2812488.2383561642</v>
+      </c>
+      <c r="F12" s="16">
+        <v>9942072.1123287678</v>
+      </c>
+      <c r="G12" s="16">
+        <v>403058.36438356165</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
         <v>8307129.8904109588</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="15">
         <v>964538.70684931509</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="15">
         <v>9271668.597260274</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="15">
         <v>7404576.6273972606</v>
       </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
         <v>7621926.3863013703</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="15">
         <v>16893594.983561642</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="15">
         <v>453761.68493150687</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="R12" s="15">
         <v>447540.69041095889</v>
       </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
         <v>1783425.8136986301</v>
       </c>
-      <c r="T12" s="6">
-        <v>0</v>
-      </c>
-      <c r="U12" s="6">
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
         <v>2064146.194520548</v>
       </c>
-      <c r="V12" s="6">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
+      <c r="W12" s="15">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15">
         <v>3717.0383561643835</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Z12" s="15">
         <v>4773983.6383561641</v>
       </c>
-      <c r="Z12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6">
+      <c r="AA12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15">
         <v>4864778.1972602736</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AE12" s="15">
         <v>12028816.786301371</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AF12" s="15">
         <v>25135045.884931508</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AG12" s="15">
         <v>327687.81917808217</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AH12" s="15">
         <v>-13433916.91780822</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AI12" s="15">
         <v>12028816.786301371</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AJ12" s="15">
         <v>151082.32328767123</v>
       </c>
-      <c r="AJ12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="6">
+      <c r="AK12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="15">
         <v>-2118071.5945205479</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AN12" s="15">
         <v>-368690.50958904112</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AO12" s="15">
         <v>-1426540.0027397261</v>
       </c>
-      <c r="AO12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="6">
+      <c r="AP12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="15">
         <v>-120199.20273972602</v>
       </c>
-      <c r="AQ12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="6">
+      <c r="AR12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="15">
         <v>-403058.36438356165</v>
       </c>
-      <c r="AS12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="6">
+      <c r="AT12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="15">
         <v>-4928227.8246575342</v>
       </c>
-      <c r="AU12" s="6">
+      <c r="AV12" s="15">
         <v>-630525.06301369867</v>
       </c>
-      <c r="AV12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="6">
+      <c r="AW12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="15">
         <v>-776617.19452054799</v>
       </c>
-      <c r="AX12" s="6">
+      <c r="AY12" s="15">
         <v>-5610916.208219178</v>
       </c>
-      <c r="AY12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="6">
+      <c r="AZ12" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="15">
         <v>-5611861.3753424659</v>
       </c>
-      <c r="BA12" s="6">
+      <c r="BB12" s="15">
         <v>-2893.3041095890408</v>
       </c>
-      <c r="BB12" s="6">
+      <c r="BC12" s="15">
         <v>-2893.3041095890408</v>
       </c>
-      <c r="BC12" s="6">
+      <c r="BD12" s="15">
         <v>-5614754.6794520551</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="19.5" customHeight="1">
+    <row r="13" spans="1:56" ht="19.5" customHeight="1">
       <c r="A13" s="2">
         <v>44469</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="6">
+      <c r="C13" s="13">
+        <v>-4558169.2301369859</v>
+      </c>
+      <c r="D13" s="16">
+        <v>-4732915.4082191782</v>
+      </c>
+      <c r="E13" s="16">
+        <v>-3653537.6191780819</v>
+      </c>
+      <c r="F13" s="16">
+        <v>7289214.5561643839</v>
+      </c>
+      <c r="G13" s="16">
+        <v>585962.68219178077</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
         <v>7046153.9452054799</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="15">
         <v>1124943.3534246576</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="15">
         <v>8171097.298630137</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="15">
         <v>8389428.8136986308</v>
       </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
         <v>8717254.6931506842</v>
       </c>
-      <c r="O13" s="6">
+      <c r="P13" s="15">
         <v>16888351.991780821</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="15">
         <v>469390.34246575343</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="R13" s="15">
         <v>510794.34520547942</v>
       </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
+      <c r="S13" s="15">
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
         <v>928143.90684931504</v>
       </c>
-      <c r="T13" s="6">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6">
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
         <v>2689427.597260274</v>
       </c>
-      <c r="V13" s="6">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
+      <c r="X13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="15">
         <v>5340.0191780821915</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Z13" s="15">
         <v>4635361.819178082</v>
       </c>
-      <c r="Z13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="6">
+      <c r="AA13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="15">
         <v>4772306.0986301368</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AE13" s="15">
         <v>12116045.893150685</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AF13" s="15">
         <v>26795652.942465752</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AG13" s="15">
         <v>359346.90958904108</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AH13" s="15">
         <v>-15038953.95890411</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AI13" s="15">
         <v>12116045.893150685</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AJ13" s="15">
         <v>138305.1616438356</v>
       </c>
-      <c r="AJ13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="6">
+      <c r="AK13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="15">
         <v>-2540989.7972602742</v>
       </c>
-      <c r="AM13" s="6">
+      <c r="AN13" s="15">
         <v>-303799.25479452056</v>
       </c>
-      <c r="AN13" s="6">
+      <c r="AO13" s="15">
         <v>-1491522.5013698631</v>
       </c>
-      <c r="AO13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="6">
+      <c r="AP13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="15">
         <v>-121168.10136986301</v>
       </c>
-      <c r="AQ13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="6">
+      <c r="AR13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="15">
         <v>-585962.68219178077</v>
       </c>
-      <c r="AS13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="6">
+      <c r="AT13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="15">
         <v>-5144131.9123287667</v>
       </c>
-      <c r="AU13" s="6">
+      <c r="AV13" s="15">
         <v>-676030.53150684934</v>
       </c>
-      <c r="AV13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="6">
+      <c r="AW13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="15">
         <v>-530474.59726027399</v>
       </c>
-      <c r="AX13" s="6">
+      <c r="AY13" s="15">
         <v>-5988410.104109589</v>
       </c>
-      <c r="AY13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="6">
+      <c r="AZ13" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="15">
         <v>-5989835.687671233</v>
       </c>
-      <c r="BA13" s="6">
+      <c r="BB13" s="15">
         <v>-4806.6520547945202</v>
       </c>
-      <c r="BB13" s="6">
+      <c r="BC13" s="15">
         <v>-4806.6520547945202</v>
       </c>
-      <c r="BC13" s="6">
+      <c r="BD13" s="15">
         <v>-5994642.339726028</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="19.5" customHeight="1">
+    <row r="14" spans="1:56" ht="19.5" customHeight="1">
       <c r="A14" s="2">
         <v>44561</v>
       </c>
       <c r="B14" s="5">
         <v>8</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="22">
+      <c r="C14" s="13">
+        <v>-4531402.8</v>
+      </c>
+      <c r="D14" s="19">
         <v>-5145240</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>-4494587</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="19">
         <v>4636357</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="19">
         <v>768867</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="14">
+        <v>59766.2</v>
+      </c>
+      <c r="I14" s="15">
         <v>5785178</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="15">
         <v>1285348</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="15">
         <v>7070526</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="15">
         <v>9374281</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="15">
         <v>139471</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="15">
         <v>298831</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="15">
         <v>9812583</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="15">
         <v>16883109</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="15">
         <v>485019</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R14" s="15">
         <v>574048</v>
       </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
+      <c r="S14" s="15">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
         <v>72862</v>
       </c>
-      <c r="T14" s="6">
+      <c r="U14" s="15">
         <v>43139</v>
       </c>
-      <c r="U14" s="6">
+      <c r="V14" s="15">
         <v>3314709</v>
       </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>0</v>
-      </c>
-      <c r="X14" s="6">
+      <c r="W14" s="15">
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15">
         <v>6963</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Z14" s="15">
         <v>4496740</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AA14" s="15">
         <v>73595</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AB14" s="15">
         <v>109499</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AC14" s="15">
         <v>183094</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AD14" s="15">
         <v>4679834</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AE14" s="15">
         <v>12203275</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AF14" s="15">
         <v>28456260</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AG14" s="15">
         <v>391006</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AH14" s="15">
         <v>-16643991</v>
       </c>
-      <c r="AH14" s="6">
+      <c r="AI14" s="15">
         <v>12203275</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AJ14" s="15">
         <v>125528</v>
       </c>
-      <c r="AJ14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="6">
+      <c r="AK14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="15">
         <v>125528</v>
       </c>
-      <c r="AL14" s="6">
+      <c r="AM14" s="15">
         <v>-2963908</v>
       </c>
-      <c r="AM14" s="6">
+      <c r="AN14" s="15">
         <v>-238908</v>
       </c>
-      <c r="AN14" s="6">
+      <c r="AO14" s="15">
         <v>-1556505</v>
       </c>
-      <c r="AO14" s="6">
+      <c r="AP14" s="15">
         <v>164761</v>
       </c>
-      <c r="AP14" s="6">
+      <c r="AQ14" s="15">
         <v>-122137</v>
       </c>
-      <c r="AQ14" s="6">
+      <c r="AR14" s="15">
         <v>-4716697</v>
       </c>
-      <c r="AR14" s="6">
+      <c r="AS14" s="15">
         <v>-768867</v>
       </c>
-      <c r="AS14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="6">
+      <c r="AT14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="15">
         <v>-5360036</v>
       </c>
-      <c r="AU14" s="6">
+      <c r="AV14" s="15">
         <v>-721536</v>
       </c>
-      <c r="AV14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="6">
+      <c r="AW14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="15">
         <v>-284332</v>
       </c>
-      <c r="AX14" s="6">
+      <c r="AY14" s="15">
         <v>-6365904</v>
       </c>
-      <c r="AY14" s="6">
+      <c r="AZ14" s="15">
         <v>-1906</v>
       </c>
-      <c r="AZ14" s="6">
+      <c r="BA14" s="15">
         <v>-6367810</v>
       </c>
-      <c r="BA14" s="6">
+      <c r="BB14" s="15">
         <v>-6720</v>
       </c>
-      <c r="BB14" s="6">
+      <c r="BC14" s="15">
         <v>-6720</v>
       </c>
-      <c r="BC14" s="6">
+      <c r="BD14" s="15">
         <v>-6374530</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="19.5" customHeight="1">
+    <row r="15" spans="1:56" ht="19.5" customHeight="1">
       <c r="A15" s="2">
         <v>44650</v>
       </c>
       <c r="B15" s="5">
         <v>8</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="6">
+      <c r="C15" s="13">
+        <v>-5939686.2778082201</v>
+      </c>
+      <c r="D15" s="16">
+        <v>-5036513.6986301374</v>
+      </c>
+      <c r="E15" s="16">
+        <v>-4140067.5698630135</v>
+      </c>
+      <c r="F15" s="16">
+        <v>4413324.4630136983</v>
+      </c>
+      <c r="G15" s="16">
+        <v>784480.28219178086</v>
+      </c>
+      <c r="H15" s="14">
+        <v>83951.133150684924</v>
+      </c>
+      <c r="I15" s="15">
         <v>4803708.9205479454</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="15">
         <v>1244477.493150685</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="15">
         <v>6048186.4136986304</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="15">
         <v>8681068.7780821919</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="15">
         <v>148104.4876712329</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="15">
         <v>419755.66575342463</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="15">
         <v>9248928.9315068498</v>
       </c>
-      <c r="O15" s="6">
+      <c r="P15" s="15">
         <v>15297115.34520548</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="15">
         <v>465937.64383561641</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="R15" s="15">
         <v>624230.10136986303</v>
       </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
+      <c r="S15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="15">
         <v>64001.013698630137</v>
       </c>
-      <c r="T15" s="6">
+      <c r="U15" s="15">
         <v>50538.191780821922</v>
       </c>
-      <c r="U15" s="6">
+      <c r="V15" s="15">
         <v>2578633.6465753424</v>
       </c>
-      <c r="V15" s="6">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6">
+      <c r="W15" s="15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
         <v>6474.1095890410961</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Z15" s="15">
         <v>4042197.9808219178</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="AA15" s="15">
         <v>651562.95068493148</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AB15" s="15">
         <v>112469.64931506848</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AC15" s="15">
         <v>764032.60000000009</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AD15" s="15">
         <v>4806230.5808219174</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AE15" s="15">
         <v>10490884.764383562</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AF15" s="15">
         <v>28463586.528767124</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AG15" s="15">
         <v>453571.29315068491</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AH15" s="15">
         <v>-18426273.057534248</v>
       </c>
-      <c r="AH15" s="6">
+      <c r="AI15" s="15">
         <v>10490884.764383562</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AJ15" s="15">
         <v>161267.2301369863</v>
       </c>
-      <c r="AJ15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="6">
+      <c r="AK15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="15">
         <v>64559.098630136992</v>
       </c>
-      <c r="AL15" s="6">
+      <c r="AM15" s="15">
         <v>-3252451.6082191779</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AN15" s="15">
         <v>-181486.4191780822</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AO15" s="15">
         <v>-1618576.2821917809</v>
       </c>
-      <c r="AO15" s="6">
+      <c r="AP15" s="15">
         <v>169190.27397260274</v>
       </c>
-      <c r="AP15" s="6">
+      <c r="AQ15" s="15">
         <v>-111698.15342465753</v>
       </c>
-      <c r="AQ15" s="6">
+      <c r="AR15" s="15">
         <v>-4995022.1890410958</v>
       </c>
-      <c r="AR15" s="6">
+      <c r="AS15" s="15">
         <v>-784480.28219178086</v>
       </c>
-      <c r="AS15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="6">
+      <c r="AT15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="15">
         <v>-6808117.6931506852</v>
       </c>
-      <c r="AU15" s="6">
+      <c r="AV15" s="15">
         <v>506569.39178082184</v>
       </c>
-      <c r="AV15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="6">
+      <c r="AW15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="15">
         <v>-312817.36438356165</v>
       </c>
-      <c r="AX15" s="6">
+      <c r="AY15" s="15">
         <v>-6554532.0630136989</v>
       </c>
-      <c r="AY15" s="6">
+      <c r="AZ15" s="15">
         <v>-42861.117808219176</v>
       </c>
-      <c r="AZ15" s="6">
+      <c r="BA15" s="15">
         <v>-6597393.180821918</v>
       </c>
-      <c r="BA15" s="6">
+      <c r="BB15" s="15">
         <v>-510.96986301369907</v>
       </c>
-      <c r="BB15" s="6">
+      <c r="BC15" s="15">
         <v>-510.96986301369907</v>
       </c>
-      <c r="BC15" s="6">
+      <c r="BD15" s="15">
         <v>-6597904.1506849313</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="19.5" customHeight="1">
+    <row r="16" spans="1:56" ht="19.5" customHeight="1">
       <c r="A16" s="2">
         <v>44742</v>
       </c>
       <c r="B16" s="5">
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="6">
+      <c r="C16" s="13">
+        <v>-7395439.985205479</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-4924122.4657534249</v>
+      </c>
+      <c r="E16" s="16">
+        <v>-3773598.0465753423</v>
+      </c>
+      <c r="F16" s="16">
+        <v>4182773.9753424656</v>
+      </c>
+      <c r="G16" s="16">
+        <v>800619.85479452054</v>
+      </c>
+      <c r="H16" s="14">
+        <v>108951.28876712329</v>
+      </c>
+      <c r="I16" s="15">
         <v>3789156.6136986301</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="15">
         <v>1202229.3287671232</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="15">
         <v>4991385.9424657533</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="15">
         <v>7964489.8520547943</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="15">
         <v>157028.99178082193</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="15">
         <v>544756.44383561646</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="15">
         <v>8666275.2876712326</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P16" s="15">
         <v>13657661.230136987</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="15">
         <v>446213.09589041094</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="R16" s="15">
         <v>676103.73424657539</v>
       </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
         <v>54841.34246575342</v>
       </c>
-      <c r="T16" s="6">
+      <c r="U16" s="15">
         <v>58186.794520547948</v>
       </c>
-      <c r="U16" s="6">
+      <c r="V16" s="15">
         <v>1817746.7643835617</v>
       </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>0</v>
-      </c>
-      <c r="X16" s="6">
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+      <c r="X16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="15">
         <v>5968.7397260273974</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="Z16" s="15">
         <v>3572334.3205479449</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="AA16" s="15">
         <v>1249012.9671232877</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AB16" s="15">
         <v>115540.43287671232</v>
       </c>
-      <c r="AB16" s="6">
+      <c r="AC16" s="15">
         <v>1364553.4000000001</v>
       </c>
-      <c r="AC16" s="6">
+      <c r="AD16" s="15">
         <v>4936887.7205479452</v>
       </c>
-      <c r="AD16" s="6">
+      <c r="AE16" s="15">
         <v>8720773.5095890407</v>
       </c>
-      <c r="AE16" s="6">
+      <c r="AF16" s="15">
         <v>28471160.019178081</v>
       </c>
-      <c r="AF16" s="6">
+      <c r="AG16" s="15">
         <v>518245.52876712329</v>
       </c>
-      <c r="AG16" s="6">
+      <c r="AH16" s="15">
         <v>-20268632.038356163</v>
       </c>
-      <c r="AH16" s="6">
+      <c r="AI16" s="15">
         <v>8720773.5095890407</v>
       </c>
-      <c r="AI16" s="6">
+      <c r="AJ16" s="15">
         <v>198211.15342465753</v>
       </c>
-      <c r="AJ16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="6">
+      <c r="AK16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="15">
         <v>1535.0657534246711</v>
       </c>
-      <c r="AL16" s="6">
+      <c r="AM16" s="15">
         <v>-3550721.4054794521</v>
       </c>
-      <c r="AM16" s="6">
+      <c r="AN16" s="15">
         <v>-122129.27945205479</v>
       </c>
-      <c r="AN16" s="6">
+      <c r="AO16" s="15">
         <v>-1682739.8547945207</v>
       </c>
-      <c r="AO16" s="6">
+      <c r="AP16" s="15">
         <v>173768.84931506848</v>
       </c>
-      <c r="AP16" s="6">
+      <c r="AQ16" s="15">
         <v>-100907.43561643835</v>
       </c>
-      <c r="AQ16" s="6">
+      <c r="AR16" s="15">
         <v>-5282729.1260273969</v>
       </c>
-      <c r="AR16" s="6">
+      <c r="AS16" s="15">
         <v>-800619.85479452054</v>
       </c>
-      <c r="AS16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="6">
+      <c r="AT16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="15">
         <v>-8305011.1287671234</v>
       </c>
-      <c r="AU16" s="6">
+      <c r="AV16" s="15">
         <v>1776071.5945205479</v>
       </c>
-      <c r="AV16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="6">
+      <c r="AW16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="15">
         <v>-342262.90958904108</v>
       </c>
-      <c r="AX16" s="6">
+      <c r="AY16" s="15">
         <v>-6749518.3753424659</v>
       </c>
-      <c r="AY16" s="6">
+      <c r="AZ16" s="15">
         <v>-85196.745205479456</v>
       </c>
-      <c r="AZ16" s="6">
+      <c r="BA16" s="15">
         <v>-6834715.1205479456</v>
       </c>
-      <c r="BA16" s="6">
+      <c r="BB16" s="15">
         <v>5907.3534246575327</v>
       </c>
-      <c r="BB16" s="6">
+      <c r="BC16" s="15">
         <v>5907.3534246575327</v>
       </c>
-      <c r="BC16" s="6">
+      <c r="BD16" s="15">
         <v>-6828807.7671232875</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="19.5" customHeight="1">
+    <row r="17" spans="1:56" ht="19.5" customHeight="1">
       <c r="A17" s="2">
         <v>44834</v>
       </c>
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="6">
+      <c r="C17" s="13">
+        <v>-8851193.6926027406</v>
+      </c>
+      <c r="D17" s="16">
+        <v>-4811731.2328767125</v>
+      </c>
+      <c r="E17" s="16">
+        <v>-3407128.5232876712</v>
+      </c>
+      <c r="F17" s="16">
+        <v>3952223.4876712328</v>
+      </c>
+      <c r="G17" s="16">
+        <v>816759.42739726021</v>
+      </c>
+      <c r="H17" s="14">
+        <v>133951.44438356164</v>
+      </c>
+      <c r="I17" s="15">
         <v>2774604.3068493148</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="15">
         <v>1159981.1643835616</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="15">
         <v>3934585.4712328766</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="15">
         <v>7247910.9260273967</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="15">
         <v>165953.49589041097</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="15">
         <v>669757.22191780817</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="15">
         <v>8083621.6438356163</v>
       </c>
-      <c r="O17" s="6">
+      <c r="P17" s="15">
         <v>12018207.115068493</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="15">
         <v>426488.54794520547</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="R17" s="15">
         <v>727977.36712328764</v>
       </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
+      <c r="S17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="15">
         <v>45681.67123287671</v>
       </c>
-      <c r="T17" s="6">
+      <c r="U17" s="15">
         <v>65835.397260273981</v>
       </c>
-      <c r="U17" s="6">
+      <c r="V17" s="15">
         <v>1056859.882191781</v>
       </c>
-      <c r="V17" s="6">
-        <v>0</v>
-      </c>
-      <c r="W17" s="6">
-        <v>0</v>
-      </c>
-      <c r="X17" s="6">
+      <c r="W17" s="15">
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="15">
         <v>5463.3698630136987</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Z17" s="15">
         <v>3102470.6602739724</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="AA17" s="15">
         <v>1846462.9835616439</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AB17" s="15">
         <v>118611.21643835616</v>
       </c>
-      <c r="AB17" s="6">
+      <c r="AC17" s="15">
         <v>1965074.2000000002</v>
       </c>
-      <c r="AC17" s="6">
+      <c r="AD17" s="15">
         <v>5067544.8602739722</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AE17" s="15">
         <v>6950662.2547945203</v>
       </c>
-      <c r="AE17" s="6">
+      <c r="AF17" s="15">
         <v>28478733.509589039</v>
       </c>
-      <c r="AF17" s="6">
+      <c r="AG17" s="15">
         <v>582919.76438356168</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AH17" s="15">
         <v>-22110991.019178081</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AI17" s="15">
         <v>6950662.2547945203</v>
       </c>
-      <c r="AI17" s="6">
+      <c r="AJ17" s="15">
         <v>235155.07671232877</v>
       </c>
-      <c r="AJ17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="6">
+      <c r="AK17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="15">
         <v>-61488.967123287664</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AM17" s="15">
         <v>-3848991.2027397258</v>
       </c>
-      <c r="AM17" s="6">
+      <c r="AN17" s="15">
         <v>-62772.139726027395</v>
       </c>
-      <c r="AN17" s="6">
+      <c r="AO17" s="15">
         <v>-1746903.4273972604</v>
       </c>
-      <c r="AO17" s="6">
+      <c r="AP17" s="15">
         <v>178347.42465753423</v>
       </c>
-      <c r="AP17" s="6">
+      <c r="AQ17" s="15">
         <v>-90116.717808219168</v>
       </c>
-      <c r="AQ17" s="6">
+      <c r="AR17" s="15">
         <v>-5570436.0630136989</v>
       </c>
-      <c r="AR17" s="6">
+      <c r="AS17" s="15">
         <v>-816759.42739726021</v>
       </c>
-      <c r="AS17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="6">
+      <c r="AT17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="15">
         <v>-9801904.5643835627</v>
       </c>
-      <c r="AU17" s="6">
+      <c r="AV17" s="15">
         <v>3045573.7972602742</v>
       </c>
-      <c r="AV17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="6">
+      <c r="AW17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="15">
         <v>-371708.45479452051</v>
       </c>
-      <c r="AX17" s="6">
+      <c r="AY17" s="15">
         <v>-6944504.687671233</v>
       </c>
-      <c r="AY17" s="6">
+      <c r="AZ17" s="15">
         <v>-127532.37260273972</v>
       </c>
-      <c r="AZ17" s="6">
+      <c r="BA17" s="15">
         <v>-7072037.0602739733</v>
       </c>
-      <c r="BA17" s="6">
+      <c r="BB17" s="15">
         <v>12325.676712328766</v>
       </c>
-      <c r="BB17" s="6">
+      <c r="BC17" s="15">
         <v>12325.676712328766</v>
       </c>
-      <c r="BC17" s="6">
+      <c r="BD17" s="15">
         <v>-7059711.3835616438</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="19.5" customHeight="1">
+    <row r="18" spans="1:56" ht="19.5" customHeight="1">
       <c r="A18" s="2">
         <v>44926</v>
       </c>
       <c r="B18" s="5">
         <v>12</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="22">
+      <c r="C18" s="13">
+        <v>-10061562.4</v>
+      </c>
+      <c r="D18" s="19">
         <v>-4699340</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>-3040659</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="19">
         <v>3721673</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="19">
         <v>832899</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="14">
+        <v>158951.6</v>
+      </c>
+      <c r="I18" s="15">
         <v>1760052</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="15">
         <v>1117733</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="15">
         <v>2877785</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="15">
         <v>6531332</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="15">
         <v>174878</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="15">
         <v>794758</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="15">
         <v>7500968</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="15">
         <v>10378753</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="15">
         <v>406764</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="R18" s="15">
         <v>779851</v>
       </c>
-      <c r="R18" s="6">
+      <c r="S18" s="15">
         <v>946878</v>
       </c>
-      <c r="S18" s="6">
+      <c r="T18" s="15">
         <v>36522</v>
       </c>
-      <c r="T18" s="6">
+      <c r="U18" s="15">
         <v>73484</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V18" s="15">
         <v>295973</v>
       </c>
-      <c r="V18" s="6">
+      <c r="W18" s="15">
         <v>54156</v>
       </c>
-      <c r="W18" s="6">
+      <c r="X18" s="15">
         <v>34021</v>
       </c>
-      <c r="X18" s="6">
+      <c r="Y18" s="15">
         <v>4958</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Z18" s="15">
         <v>2632607</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="AA18" s="15">
         <v>2443913</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AB18" s="15">
         <v>121682</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AC18" s="15">
         <v>2565595</v>
       </c>
-      <c r="AC18" s="6">
+      <c r="AD18" s="15">
         <v>5198202</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AE18" s="15">
         <v>5180551</v>
       </c>
-      <c r="AE18" s="6">
+      <c r="AF18" s="15">
         <v>28486307</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AG18" s="15">
         <v>647594</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AH18" s="15">
         <v>-23953350</v>
       </c>
-      <c r="AH18" s="6">
+      <c r="AI18" s="15">
         <v>5180551</v>
       </c>
-      <c r="AI18" s="6">
+      <c r="AJ18" s="15">
         <v>272099</v>
       </c>
-      <c r="AJ18" s="6">
+      <c r="AK18" s="15">
         <v>-396612</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AL18" s="15">
         <v>-124513</v>
       </c>
-      <c r="AL18" s="6">
+      <c r="AM18" s="15">
         <v>-4147261</v>
       </c>
-      <c r="AM18" s="6">
+      <c r="AN18" s="15">
         <v>-3415</v>
       </c>
-      <c r="AN18" s="6">
+      <c r="AO18" s="15">
         <v>-1811067</v>
       </c>
-      <c r="AO18" s="6">
+      <c r="AP18" s="15">
         <v>182926</v>
       </c>
-      <c r="AP18" s="6">
+      <c r="AQ18" s="15">
         <v>-79326</v>
       </c>
-      <c r="AQ18" s="6">
+      <c r="AR18" s="15">
         <v>-5858143</v>
       </c>
-      <c r="AR18" s="6">
+      <c r="AS18" s="15">
         <v>-832899</v>
       </c>
-      <c r="AS18" s="6">
+      <c r="AT18" s="15">
         <v>-4483243</v>
       </c>
-      <c r="AT18" s="6">
+      <c r="AU18" s="15">
         <v>-11298798</v>
       </c>
-      <c r="AU18" s="6">
+      <c r="AV18" s="15">
         <v>4315076</v>
       </c>
-      <c r="AV18" s="6">
+      <c r="AW18" s="15">
         <v>245385</v>
       </c>
-      <c r="AW18" s="6">
+      <c r="AX18" s="15">
         <v>-401154</v>
       </c>
-      <c r="AX18" s="6">
+      <c r="AY18" s="15">
         <v>-7139491</v>
       </c>
-      <c r="AY18" s="6">
+      <c r="AZ18" s="15">
         <v>-169868</v>
       </c>
-      <c r="AZ18" s="6">
+      <c r="BA18" s="15">
         <v>-7309359</v>
       </c>
-      <c r="BA18" s="6">
+      <c r="BB18" s="15">
         <v>18744</v>
       </c>
-      <c r="BB18" s="6">
+      <c r="BC18" s="15">
         <v>18744</v>
       </c>
-      <c r="BC18" s="6">
+      <c r="BD18" s="15">
         <v>-7290615</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+    <row r="19" spans="1:56">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:55">
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+    <row r="20" spans="1:56">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:55">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+    <row r="21" spans="1:56">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
